--- a/biology/Zoologie/Dryopsophus_phyllochrous/Dryopsophus_phyllochrous.xlsx
+++ b/biology/Zoologie/Dryopsophus_phyllochrous/Dryopsophus_phyllochrous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopsophus phyllochrous est une espèce d'amphibiens de la famille des Pelodryadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopsophus phyllochrous est une espèce d'amphibiens de la famille des Pelodryadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des régions côtières de l'Est de l'Australie. Elle se rencontre à partir de la rivière Wollondilly en Nouvelle-Galles du Sud jusqu'au Sud-Est du Queensland, avec une population isolée dans le parc national de Kroombit Tops dans l'État du Victoria[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des régions côtières de l'Est de l'Australie. Elle se rencontre à partir de la rivière Wollondilly en Nouvelle-Galles du Sud jusqu'au Sud-Est du Queensland, avec une population isolée dans le parc national de Kroombit Tops dans l'État du Victoria,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est rencontrée proche des ruisseaux de la forêt tropicale humide le long des côtes.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 27 à 32 mm et les femelles de 30 à 41 mm[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 27 à 32 mm et les femelles de 30 à 41 mm.
 Il s'agit d'une petite espèce de grenouille arboricole. Leur couleur va de vert pale à vert olive, et brun sur la surface dorsale. Le ventre est blanc.
 </t>
         </is>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1863 : Observations on Australian tree-frogs living in the Society's Menageria. Proceedings of the Zoological Society of London, vol. 1863, p. 249-251 (texte intégral).</t>
         </is>
